--- a/Ayudantia Economia/Control 4/Décimas I2.xlsx
+++ b/Ayudantia Economia/Control 4/Décimas I2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Moises/Desktop/Proyectos-Personales/Ayudantia Economia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Moises/Desktop/Proyectos-Personales/Ayudantia Economia/Control 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="26260" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="26200" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grupos!$B$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grupos!$B$2:$D$90</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -1293,14 +1293,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11" style="1"/>
@@ -1325,7 +1325,9 @@
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1334,7 +1336,9 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1343,7 +1347,9 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1352,7 +1358,9 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
@@ -1361,7 +1369,9 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
@@ -1370,7 +1380,9 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
@@ -1379,7 +1391,9 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
@@ -1388,7 +1402,9 @@
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
@@ -1397,7 +1413,9 @@
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -1406,7 +1424,9 @@
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
@@ -1415,7 +1435,9 @@
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -1424,7 +1446,9 @@
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
@@ -1433,7 +1457,9 @@
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
@@ -1442,7 +1468,9 @@
       <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
@@ -1451,7 +1479,9 @@
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
@@ -1460,7 +1490,9 @@
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -1469,7 +1501,9 @@
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
@@ -1478,7 +1512,9 @@
       <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
@@ -1487,7 +1523,9 @@
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
@@ -1496,7 +1534,9 @@
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
@@ -1505,7 +1545,9 @@
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -1514,7 +1556,9 @@
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
@@ -1523,7 +1567,9 @@
       <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
@@ -1532,7 +1578,9 @@
       <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
@@ -1541,7 +1589,9 @@
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
@@ -1550,7 +1600,9 @@
       <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
@@ -1559,7 +1611,9 @@
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
@@ -1568,7 +1622,9 @@
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
@@ -1577,7 +1633,9 @@
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
@@ -1586,7 +1644,9 @@
       <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
@@ -1595,7 +1655,9 @@
       <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
@@ -1604,7 +1666,9 @@
       <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
@@ -1613,7 +1677,9 @@
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
@@ -1622,7 +1688,9 @@
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
@@ -1631,7 +1699,9 @@
       <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
@@ -1640,7 +1710,9 @@
       <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
@@ -1649,7 +1721,9 @@
       <c r="C39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
@@ -1658,7 +1732,9 @@
       <c r="C40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
@@ -1667,7 +1743,9 @@
       <c r="C41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -1676,7 +1754,9 @@
       <c r="C42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
@@ -1685,7 +1765,9 @@
       <c r="C43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
@@ -1694,7 +1776,9 @@
       <c r="C44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
@@ -1703,7 +1787,9 @@
       <c r="C45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
@@ -1712,7 +1798,9 @@
       <c r="C46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
@@ -1721,7 +1809,9 @@
       <c r="C47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
@@ -1730,7 +1820,9 @@
       <c r="C48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
@@ -1739,7 +1831,9 @@
       <c r="C49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
@@ -1748,7 +1842,9 @@
       <c r="C50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
@@ -1757,7 +1853,9 @@
       <c r="C51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
@@ -1766,7 +1864,9 @@
       <c r="C52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
@@ -1775,7 +1875,9 @@
       <c r="C53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
@@ -1784,7 +1886,9 @@
       <c r="C54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
@@ -1793,7 +1897,9 @@
       <c r="C55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
@@ -1802,7 +1908,9 @@
       <c r="C56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
@@ -1811,7 +1919,9 @@
       <c r="C57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
@@ -1820,7 +1930,9 @@
       <c r="C58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
@@ -1829,7 +1941,9 @@
       <c r="C59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
@@ -1838,7 +1952,9 @@
       <c r="C60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
@@ -1847,7 +1963,9 @@
       <c r="C61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
@@ -1856,7 +1974,9 @@
       <c r="C62" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
@@ -1865,7 +1985,9 @@
       <c r="C63" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
@@ -1874,7 +1996,9 @@
       <c r="C64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
@@ -1883,7 +2007,9 @@
       <c r="C65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
@@ -1892,7 +2018,9 @@
       <c r="C66" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
@@ -1901,7 +2029,9 @@
       <c r="C67" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
@@ -1910,7 +2040,9 @@
       <c r="C68" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
@@ -1919,7 +2051,9 @@
       <c r="C69" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
@@ -1928,7 +2062,9 @@
       <c r="C70" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
@@ -1937,7 +2073,9 @@
       <c r="C71" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
@@ -1946,7 +2084,9 @@
       <c r="C72" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
@@ -1955,7 +2095,9 @@
       <c r="C73" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
@@ -1964,7 +2106,9 @@
       <c r="C74" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
@@ -1973,7 +2117,9 @@
       <c r="C75" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
@@ -1982,7 +2128,9 @@
       <c r="C76" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="5"/>
+      <c r="D76" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
@@ -1991,7 +2139,9 @@
       <c r="C77" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
@@ -2000,7 +2150,9 @@
       <c r="C78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
@@ -2009,7 +2161,9 @@
       <c r="C79" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
@@ -2018,7 +2172,9 @@
       <c r="C80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
@@ -2027,7 +2183,9 @@
       <c r="C81" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
@@ -2036,7 +2194,9 @@
       <c r="C82" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
@@ -2045,7 +2205,9 @@
       <c r="C83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
@@ -2054,7 +2216,9 @@
       <c r="C84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
@@ -2063,7 +2227,9 @@
       <c r="C85" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
@@ -2072,7 +2238,9 @@
       <c r="C86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
@@ -2081,7 +2249,9 @@
       <c r="C87" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
@@ -2090,7 +2260,9 @@
       <c r="C88" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
@@ -2099,7 +2271,9 @@
       <c r="C89" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
@@ -2108,7 +2282,9 @@
       <c r="C90" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D91" s="2"/>
@@ -2120,7 +2296,7 @@
       <c r="D93" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D2">
+  <autoFilter ref="B2:D90">
     <sortState ref="B2:D92">
       <sortCondition ref="B1:B92"/>
     </sortState>
